--- a/biology/Histoire de la zoologie et de la botanique/Polydore_Roux/Polydore_Roux.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Polydore_Roux/Polydore_Roux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Louis Florent Polydore Roux est un peintre et un  naturaliste français, né le 27 juillet 1792 à Marseille et mort le 12 avril 1833 à Bombay de la peste.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès sa jeunesse Polydore Roux est destiné à suivre la carrière de son père, négociant en huiles. Mais n'étant attiré que par les arts graphiques et les sciences naturelles, il reçoit l'autorisation de son père pour suivre les cours de l'École gratuite de dessin où il est l'élève d'Augustin Aubert. Dès 1811 il obtient un prix spécial d'encouragement et en 1818 expose à Marseille une vue de la Sainte-Baume et une Tempête qui attirent sur lui l'attention du Comte de Forbin, directeur des Musées royaux. Il expose aux Salons de Paris de 1819 à 1824.
 Tout en peignant, il s'adonne à l'étude de la nature provençale et confectionne une collection de 3 000 insectes environ. Le 1er juin 1819, il obtient la place de conservateur du Muséum de Marseille. Il est en relation avec les professeurs de Paris (Cuvier, Latreille, Férussac...) et les directeurs des musées de province (Antoine Risso, Alfred Moquin-Tandon...). Il publie en 1820, un Catalogue d’insectes de Provence et, en 1828, les Crustacés de la Méditerranée et de son littoral et le début d’une iconographie consacrée aux coquillages.
